--- a/Mifos Automation Excels/Client/2664-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-REPAY-AccCL1stFEB-WAIVEINTEREST-ON-2ndFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2664-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-REPAY-AccCL1stFEB-WAIVEINTEREST-ON-2ndFEB-Newcreateloan1.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>626.14</v>
+        <v>256.26</v>
       </c>
       <c r="B3" s="15">
         <v>50.96</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <v>536.86</v>
+        <v>166.98</v>
       </c>
       <c r="F3" s="15">
-        <v>165.18</v>
+        <v>166.98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
